--- a/input_data/USA/Ratio_ZY_noServices_1987_ImpNoExpNoCII.xlsx
+++ b/input_data/USA/Ratio_ZY_noServices_1987_ImpNoExpNoCII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Desktop\EndUse_shortTermSave\2020_NationalOfficial_IOSUT\USA\Benchmark_SUTIO\_NewResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Documents\GitHub\IO_MaterialEndUse_Shares\input_data\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE25644E-C2FC-49BF-BF2B-375C03077047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6FADB-F505-4AA0-A7A0-7E94A4EE06CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="525">
   <si>
     <t>Interindustry</t>
   </si>
@@ -1592,6 +1592,9 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>Hospitals1</t>
   </si>
 </sst>
 </file>
@@ -2001,16 +2004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10100</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>167.64452700265781</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10200</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>4.5135385822460572</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10301</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10302</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>1.343602064934144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20100</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20201</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>23.119275355754599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20202</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>28.442294621371619</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20203</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>20.33957044560989</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20300</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20401</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>0.39560314059228108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20402</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>2.4874605442552928</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20501</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>0.31308627927731769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20502</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>49.258308306392493</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20503</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20600</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>99.968921626007088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20702</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>0.68639579535522</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30001</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30002</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>0.86270417016752887</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40001</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>34.029914042669617</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40002</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>2.2761994828109171</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>50000</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>60100</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>60200</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>11.23553587220457</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>70000</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>24.37054362831471</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>80000</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>90001</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>90002</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>90003</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>90004</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>28.92979744678232</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>100000</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>10.70736558776321</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>110101</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>110102</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>110103</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>110104</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>110105</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>110106</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>110107</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>110201</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>110202</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>110203</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>110204</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>110205</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>110206</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>110207</v>
       </c>
@@ -2775,12 +2778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>110231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>524</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2792,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>110232</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>110241</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>110250</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>110301</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>110302</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>110303</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>110304</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>110305</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>110306</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>110307</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>110308</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>110400</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>110501</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>110502</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>110601</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>110602</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>2.607865369696246E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>110603</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>110701</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>110702</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>110703</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110704</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>120100</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>6.5308576574297792E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>120201</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>1.2609093794194559</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>120202</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>120203</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>120204</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>120205</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>120206</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>120207</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>120208</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120209</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>120210</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>120211</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>120212</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>120213</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>120214</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>2.6575945258241749E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>120215</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>120216</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>1.486290628061824</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>130100</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>3.3759491674838341E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>130200</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>6.0198580575568893E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>130300</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>1.1743991456216331E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>130500</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>1.422998523169213E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>130600</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>0.16251728869432319</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>130700</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>4.448829592778468E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>140101</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>0.59662957569426156</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>140102</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>5.0646996015742872E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>140105</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>0.32014324289726143</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140200</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>6.0086918031016991E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>140300</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>0.40409706453121702</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>140400</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>0.64921266504103992</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>140500</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>2.7511898742114491E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>140600</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>0.30997454297283061</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>140700</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>3.2317107785582908E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>140800</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>2.8262888340744008E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>140900</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>0.1137727007375674</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>141000</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>0.41871126393483388</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>141100</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>2.987128922400785E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>141200</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>0.4768798183808628</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>141301</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>0.19011162040495519</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>141302</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>2.1267221946919082E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>141401</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>4.3716135959632636</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>141402</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>8.2052805468291193E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>141403</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>5.5796095653029697E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>141501</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>2.2091741706076569E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>141502</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>18.418526591425302</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>141600</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>0.58842113208458313</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>141700</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>3.9548430891283251</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>141801</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>1.500422856537472E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>141802</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>1.6491007930617401E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>141803</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>7.4424035296217776E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>141900</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>2.2832298790133749</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>142001</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>2.029165269410489E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>142002</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>1.317578429586221</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>142003</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>0.1107748504412434</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>142004</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>0.76382019345065844</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>142101</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>5.096849548128413E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>142102</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>142103</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>9.3048676117139587E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>142104</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>0.21299039042284101</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>142200</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>5.4321032025373582E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>142300</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>1.896533539606021</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>142400</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>142500</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>256.92581726163371</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>142600</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>20.51228356707848</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>142700</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>142800</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>1.6411047807697941E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>142900</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>2.0319737420933861</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>143000</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>0.41055580913605422</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>143100</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>4.3713894162286101E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>143201</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>3.3872608945809438E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>143202</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>0.15662323956074881</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>150101</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>150102</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>8.1556110397360503E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>150103</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>2.165494565698891E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>150200</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>160100</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>35.640379243039092</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>160200</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>11.289683784483019</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>160300</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>55.373268250137528</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>160400</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>11.985133760662571</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>170100</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>0.34941469423756699</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>170600</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>2189.9403155292812</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>170700</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>170900</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>1.5916108181015769</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>171001</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>9.514439887123606</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>171100</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>63.239072829973928</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>180101</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>7.9785029770316901E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>180102</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>0.15540199195943349</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>180300</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>27.366367742597021</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>180400</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>0.14227844214782229</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>190100</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>0.1005087976405387</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>190200</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>1.7453101978573159E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>190301</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>1.390225420242722</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>190302</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>0.68384138151645935</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>190303</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>1.3120633021627861</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>190304</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>8.7674595653229872</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>190305</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>6.4072772807792351</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>190306</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>1.7941739506262739</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>200100</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>200200</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>519.1446977935218</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>200300</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>200400</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>266.73441824836641</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>200501</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>200502</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>10471.745991758269</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>200600</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>4365.9563568423182</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>200701</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>753.61083716930273</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>200702</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>216.4548891241424</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>200703</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>6.2254905029405184E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>200800</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>340.50997587745229</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>200901</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>30.950578311000061</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>200903</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>0.95897693151154928</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>200904</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>139.4261910092097</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>210000</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>53.130559188196003</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>220101</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>1.0842559951133229E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>220102</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>1.0064022478210051</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>220103</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>54.314345191125582</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>220200</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>2.9972119762672008E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>220300</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>9.6513658537822331E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>220400</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>4.1635095628421307E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>230100</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>2.1906663376806568E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>230200</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>1.6111934648761999E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>230300</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>2.2598597222694981</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>230400</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>0.39022708202359407</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>230500</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>0.18875663277419041</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>230600</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>8.1955420766086588E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>230700</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>2.8301494174116641E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>240100</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>240400</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>0.54051322699090076</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>240500</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>2.6929080690953431E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>240701</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>5.7137502292953002</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>240702</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>3.8873540073590398</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>240703</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>1.6362151248669401</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>240705</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>2.809938046038641E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>240706</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>0.81213522699025287</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>240800</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>28.385366542140051</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>250000</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>37.158618321683797</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>260100</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>6.1692747677713003E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>260200</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>0.10346306818081021</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>260301</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>3.9969103310226593E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>260302</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>9.1369051288951155</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>260400</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>0.28952372367631191</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>260501</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>2.3675054254746821</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>260601</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>0.88282171268987919</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>260602</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>0.41568832639426068</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>260700</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>0.1445214860378283</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>260802</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>2.3527271528874469</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>260803</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>81.37082773776028</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>260806</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>270100</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>13.19258905363081</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>270201</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>29.227030384257048</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>270300</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>4.1142519172659826</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>270401</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>1.6462994116573191</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>270402</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>15.61389377978325</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>270403</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>7.2957999597841923</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>270404</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>78.936444605539521</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>270405</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>270406</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>6.2182006105739127</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>280100</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>3238.3820717968729</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>280200</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>3273.9858411916462</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>280300</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>783.40732774911669</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>280400</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>3379.039759992625</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>290100</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>0.1938520821880749</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>290201</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>6.6855230053659259E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>290202</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>6.1971589602333559E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>290203</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>19.162510912747791</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>290300</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>3.5038330723865488E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>300000</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>22.221995100805021</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>310101</v>
       </c>
@@ -5959,7 +5962,7 @@
         <v>0.30419138561143733</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>310102</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1.6570646440901391</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>310103</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>27.298884565804279</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>310200</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>310300</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>320100</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>0.84341382519856933</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>320200</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>5.4790242163872487E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>320300</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>4.1546115510235131</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>320400</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>13.89060264437091</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>320500</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>5.0514776521332534</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>320600</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>18.139237478455861</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>330001</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>1885.515285428268</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>340100</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>14.20119867589845</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>340201</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>2.50793753425416E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>340202</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>340301</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>4.6530285932784724E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>340302</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>6.0257688386067473E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>340303</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>1.270928545534767E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>340304</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>0.18151672748609221</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>340305</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>0.15489591046510309</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>350100</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>4.8762005691629113</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>350200</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>120.5982726163908</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>360100</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>48025.043280917031</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>360200</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>360300</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>360400</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>360500</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>360600</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>360701</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>360702</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>360800</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>178.23257826840299</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>360900</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>2.6951797082690611E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>361000</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>361100</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>159.6483049931299</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>361200</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>41733.823805448883</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>361300</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>337.8030036201904</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>361400</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>232.00934508195769</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>361500</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>1.705788782923475</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>361600</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>7.8238968897049714</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>361700</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>55.397654606051098</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>361900</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>12.550905520183241</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>362000</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>362100</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>362200</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>5.274714372399985</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>370101</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>3052.5690668321649</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>370102</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>370103</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>34.673477680632821</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>370200</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>336.82184914583121</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>370300</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>53.560438200580563</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>370401</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>53.967495403243433</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>370402</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>31.02423772531175</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>380100</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>293.99628658836423</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>380400</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>717.39053725386964</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>380501</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>380700</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>117.94620711569679</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>380800</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>691.38992244448218</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>380900</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>381000</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>41.186507400310163</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>381100</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>23.064281555626291</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>381200</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>40.689016369854137</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>381300</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>3.670185186420952</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>381400</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>4315.4135656883582</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>390100</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>525.18930914913926</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>390200</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>13.769384372248719</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>400100</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>400200</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>400300</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>3.6947946960435791</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>400400</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>33.663361979706217</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400500</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>934.26081882703181</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>400600</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>1.3729005048737219</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>400700</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>21.345240953289331</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>400800</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>70.994216815490788</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>400901</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>30.621187569966519</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>400902</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>72.358931254403089</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>410100</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>34.207548831295497</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>410201</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>72.745209241888162</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>410202</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>30.119747146682649</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>410203</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>4.9272655368841347</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>420100</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>2.573878964429149E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>420201</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>0.57767783462880018</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>420202</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>1.7923938392265959</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>420300</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>8.3182720080540484</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>420401</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>43368.834153636948</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>420402</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>4133.7999706010287</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>420500</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>22.937904723934231</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>420700</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>20.159797223103631</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>420800</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>6.1580290372876387</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>421000</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>4.1499949884207998</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>421100</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>5.3279154196719567</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>430100</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>1.3631890018742069E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>430200</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>2.716091039649922</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>440001</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>0.23032842207905821</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>440002</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>5.6737303886222459E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>450100</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>0.2502980724244247</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>450200</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>1.139144206635984</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>450300</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>2.6199690204647501</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>460100</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>46.600000134678439</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>460200</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>0.16073593691866431</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>460300</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>1.150728198790143</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>460400</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>0.14136301573144869</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>470100</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>0.17715607188791349</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>470200</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>0.20084777623864911</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>470300</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>1.3934316369638791</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>470401</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>0.1507481794663699</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>470402</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>5.788734289032306E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>470404</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>0.46562522956325941</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>470405</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>470500</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>0.28628059494084901</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>480100</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>6.3539553652474351E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>480200</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>0.35149224736616358</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>480300</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>0.11786302369023879</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>480400</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>0.49916629788191441</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>480500</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>0.15463457944375669</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>480600</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>0.14092985953119361</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>490100</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>0.50519167223164996</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>490200</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>18.024735929531321</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>490300</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>4.7373163592146392</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>490500</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>59.412555060390922</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>490600</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>0.1125490454489204</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>490700</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>0.2353426702201962</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>490800</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>7.7539974473991621E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>500100</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>35.733636447621812</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>500200</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>8.3390527059291326</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>500300</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>1.7442008256227461E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>500400</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>2.977900518248926</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>510102</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>2.8280583806208838E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>510103</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>0.38954129838139689</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>510104</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>0.28436486353612128</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>510400</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>1.2117745754416631E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>520100</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>0.1031808879300192</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>520200</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>2.8467798422380469E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>520300</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>2.7144197623480149</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>520400</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>1.2072971339243481E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>520500</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>0.25636137903882678</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>530200</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>0.67634447000558773</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>530300</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>2.8299796368632308</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>530400</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>3.489931067905395</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>530500</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>6.5433410996947208</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>530700</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>122.72418088406209</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>530800</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>6.9677430242379004E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>540100</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>5.9107206758413543E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>540200</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>3.9514299225126767E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>540300</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>4.8074765256946586E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>540400</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>0.14548510954584951</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>540500</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>1.9373458867474231E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>540700</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>0.71829855336932835</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>550100</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>0.44801429562342571</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>550200</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>2.972644114806926</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>550300</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>260.66488277817609</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>560100</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>0.15004933885847771</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>560200</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>3.8641436710043942E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>560300</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>9.3692244437389674E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>560500</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>0.3353121085975318</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>570100</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>7.2684081397469891</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>570200</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>3.1990870151823798</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>570300</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>9.4818762951404132</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>580100</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>0.57912740613747871</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>580200</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>0.1183678821036443</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>580400</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>8.519637181948907</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>580600</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>0.48467752429180477</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>580700</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>0.19304774485155149</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>590100</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>0.11317503651495681</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>590200</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>6.0027459061314991E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>590301</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>1.64304616242496E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>590302</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>13.33955709163758</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>600100</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>4.0890219087777414E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>600200</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>0.78618808031270671</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>600400</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>0.83647944909902883</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>610100</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>3.6884608646962531E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>610200</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>1.5378188416510711E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>610300</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>8.5717690184414136E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>610500</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>0.17222559744237589</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>610601</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>0.10458092422905491</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>610603</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>5.1632039591595737E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>610700</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>0.16734234339763771</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>620101</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>1.67710669532188E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>620102</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>7.1191036898090698E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>620200</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>0.73136798730472719</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>620300</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>132.95262747671501</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>620400</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>2.709418913213988E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>620500</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>0.1788580638555011</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>620600</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>9.6955127381298453E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>620700</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>0.42751327378632092</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>620800</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>1.3723817928120949E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>620900</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>5.2187648733763449E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>621000</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>0.16643781613431149</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>621100</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>0.19577051069268939</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>630200</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>4.2434614636931198E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>630300</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>0.1059118914316052</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>640101</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>1.082742858888818E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>640102</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>0.27973552562997828</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>640104</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>8.7702032177244899E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>640105</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>1.5534184312944359E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>640200</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>0.13295294788169279</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>640301</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>6.3631442201597208E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>640302</v>
       </c>
@@ -9274,7 +9277,7 @@
         <v>4.2194855642223132E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>640400</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>8.9096862859857455E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>640501</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>0.11404520395607801</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>640502</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>5.8696315041046811E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>640503</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>0.61266395065190526</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>640504</v>
       </c>
@@ -9359,7 +9362,7 @@
         <v>0.50563329786870725</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>640700</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>5.9650984192414747</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>640800</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>0.57425050288237167</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>640900</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>0.79610527971997314</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>641000</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>36.939220848439298</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>641100</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>0.27166740271550027</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>641200</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>0.1196563827727615</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>650100</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>2.6068183176425141</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>650200</v>
       </c>
@@ -9495,7 +9498,7 @@
         <v>5.7357234906066562E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>650300</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>1.5755619915409671</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>650400</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>0.74829709094545349</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>650500</v>
       </c>
@@ -9546,7 +9549,7 @@
         <v>0.28833009308306168</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>650600</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>5.2354798487225542</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>650701</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>650702</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>1.0899096511292301E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>660000</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>0.13129958532820321</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>670000</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>680100</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>0.55683662261113431</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>680200</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>0.67882539208219539</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>680301</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>0.1283114975959348</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>680302</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>2.167897882230347</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>690100</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>1.010074118839027</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>690200</v>
       </c>
@@ -9733,7 +9736,7 @@
         <v>6.6402592407471595E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>700100</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>0.18377500162291671</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>700200</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>0.14568603078782519</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>700300</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>4.8922325973476698E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>700400</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>0.1070385725117567</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>700500</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>710100</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>710201</v>
       </c>
@@ -9849,7 +9852,7 @@
         <v>0.14520406805725691</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>710202</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>720100</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>0.20457677212794681</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>720201</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>0.1411276679208571</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>720202</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>720203</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>6.3116697687756767E-5</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>720204</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>0.4542068720927725</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>720205</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>720300</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>730101</v>
       </c>
@@ -10002,7 +10005,7 @@
         <v>2.4217278697238211</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>730102</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>0.18963101682171221</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>730103</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>0.66589526371126329</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>730104</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>0.35266571776454131</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>730105</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>0.38848550816916372</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>730106</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>0.46823044647832812</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>730107</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>5.2463372786356581</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>730108</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>0.1702349817047194</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>730109</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>2.4540778945407138</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>730200</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>34.75900079341578</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>730301</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>0.22318041044071241</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>730302</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>3.4203159624473201</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>730303</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>2.1560656718771192</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>740000</v>
       </c>
@@ -10223,7 +10226,7 @@
         <v>4.7424214101866848E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>750001</v>
       </c>
@@ -10240,7 +10243,7 @@
         <v>1.533406196097826</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>750002</v>
       </c>
@@ -10257,7 +10260,7 @@
         <v>0.15222141155419</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>750003</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>4.2832605822732701E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>760101</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>2.0397705350132388E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>760102</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>760201</v>
       </c>
@@ -10325,7 +10328,7 @@
         <v>5.1738053745635192E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>760202</v>
       </c>
@@ -10342,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>760203</v>
       </c>
@@ -10359,7 +10362,7 @@
         <v>4.7960346040424812E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>760204</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>7.9952124502160327E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>760205</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>1.47666643165341E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>760206</v>
       </c>
@@ -10410,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>770100</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>770200</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>770301</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>770302</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>2.4538327638222512E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>770401</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>770402</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>5.298712035370115E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>770403</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>1.2906904478063801E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>770501</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>0.36351049105349731</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>770502</v>
       </c>
@@ -10563,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>770503</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>770504</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>1.050274654100237E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>770600</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>0.24507519412864701</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>770700</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>770800</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>770900</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>780100</v>
       </c>
@@ -10682,7 +10685,7 @@
         <v>0.46416388855531349</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>780500</v>
       </c>
@@ -10696,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>790300</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>0.1000589318417045</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>800000</v>
       </c>
@@ -10730,7 +10733,7 @@
         <v>0.50071468513252715</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>810001</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>810002</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>820000</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>830001</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>840000</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>850000</v>
       </c>
